--- a/docs/assets/disciplinas/LOM3065.xlsx
+++ b/docs/assets/disciplinas/LOM3065.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/1996</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,7 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>5840897 - Clodoaldo Saron</t>
+  </si>
+  <si>
+    <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -106,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>A avaliação será feita por meio de Provas Escritas, Estudos de Casos e Desenvolvimento de Projetos, sendo necessário utilizar pelo menos dois critérios de avaliação diferentes.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira:NF = (P1 + 2*P2)/3</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P+EC+Projetos)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>Não consta recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. J. Margolis. Engineering Plastics Handbook. McGraw-Hill Professional, 2005.2. Nigel Mills. Plastics - Microstructure and Engineering Applications. Butterworth-Heineman, 2005.3. Eloisa B. Mano. Polímeros como Materiais de Engenharia. Editora Edgard Blucher, 19914. Hélio Wiebeck, Júlio Harada. Plásticos de Engenharia - Tecnologia e Aplicações. São Paulo: Editora Artliber, 2005.5. E. B. Mano, L. C. Mendes. Identificação de Plásticos, Borrachas e Fibras. São Paulo: Editora Edgard Blucher, 2000.6. Marcelo Rabello. Aditivação de Polímeros. São Paulo: Editora Artliber, 2004.7. Jan C.J. Bart. Additives in Polymers. New York: John Wiley &amp; Sons, 2005.8. Marino Xanthos. Functional Fillers for Plastics. Wiley-VCH Verlag GmbH, 2005.9. Silvio Manrich. Processamento de Termoplásticos. Editora Artliber, 2005.10. G.H. Michler, F.J. Baltá-Calleja. Mechanical Properties of Polymers Based on Nanostructure and Morphology. Boca Raton: CRC Press, 2005.11. A. M. Piva, H. Wiebeck. Reciclagem do P. São Paulo: Editora Artliber"</t>
+    <t>1. J. Margolis. Engineering Plastics Handbook. McGraw-Hill Professional, 2005. 2. Nigel Mills. Plastics - Microstructure and Engineering Applications. Butterworth-Heineman, 2005. 3. Walter Michaeli, TEcnologia dos Plasticos. Ed. Blucher 4. Hélio Wiebeck, Júlio Harada. Plásticos de Engenharia - Tecnologia e Aplicações. São Paulo: Editora Artliber, 2005. 5. E. B. Mano, L. C. Mendes. Identificação de Plásticos, Borrachas e Fibras. São Paulo: Editora Edgard Blucher, 2000. 6. Marcelo Rabello. Aditivação de Polímeros. São Paulo: Editora Artliber, 2004. 7. Jan C.J. Bart. Additives in Polymers. New York: John Wiley &amp; Sons, 2005. 8. Marino Xanthos. Functional Fillers for Plastics. Wiley-VCH Verlag GmbH, 2005. 9. Silvio Manrich. Processamento de Termoplásticos. Editora Artliber, 2005. 10. G.H. Michler, F.J. Baltá-Calleja. Mechanical Properties of Polymers Based on Nanostructure and Morphology. Boca Raton: CRC Press, 2005. 11. A. M. Piva, H. Wiebeck. Reciclagem do P. São Paulo: Editora Artliber". Manas Chanda, ,Salil K. Roy  Plastics Fabrication and Recycling</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,98 +623,106 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3065.xlsx
+++ b/docs/assets/disciplinas/LOM3065.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar uma visão técnico-científica e mercadológica da indústria de polímeros termoplásticos, popularmente conhecidos como plásticos e dos elastômeros.</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840897 - Clodoaldo Saron</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Principais tipos de polímeros termoplásticos ("commodities" e de engenharia) e elastômeros. Mercados, tecnologias de trasnformação e reciclagem.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Definição e classificação de polímeros termoplásticos, elastômeros e fibras.2. Identificação de plásticos, borrachas e fibras.3. Polímeros de adição olefínicos: polietileno, polipropileno e seus copolímeros.4. Polímeros de condensação: poli(tereftalato de etileno), poli(tereftalato de butileno) e poliamidas.5. Polímeros halogenados: poli(cloreto de vinila), poli(tetrafluor etileno) e poli(fluoreto de vinilideno).6. Termoplásticos acrílicos e oximetilênicos: PMMA, POM e poliacetais.7. Termoplásticos nitrogenados: poliacrilonitrila, poliuretano, ABS e SAN.8. Termoplásticos estirênicos e fenólicos: poliestireno, HIPS, SBR e policarbonato.9. Polímeros hidrolisáveis: EVA, PVAc e PEO.10. Termoplásticos avançados: PPO, PPS e PEEK.11. Elastômeros: borracha natural, polibutadieno, borrachas nitrílicas e fluoradas, EPDM e polisiloxanos.12. Aditivos e compostos.13. Tecnologias de transformação apropriadas a cada tipo de plástico: extrusão, injeção, laminação, calandragem, termoformação e moldagem por sopro.14. Testes e ensaios de polímeros termoplásticos e elastômeros.15. Reciclagem.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>A avaliação será feita por meio de Provas Escritas, Estudos de Casos e Desenvolvimento de Projetos, sendo necessário utilizar pelo menos dois critérios de avaliação diferentes.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P+EC+Projetos)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não consta recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. J. Margolis. Engineering Plastics Handbook. McGraw-Hill Professional, 2005. 2. Nigel Mills. Plastics - Microstructure and Engineering Applications. Butterworth-Heineman, 2005. 3. Walter Michaeli, TEcnologia dos Plasticos. Ed. Blucher 4. Hélio Wiebeck, Júlio Harada. Plásticos de Engenharia - Tecnologia e Aplicações. São Paulo: Editora Artliber, 2005. 5. E. B. Mano, L. C. Mendes. Identificação de Plásticos, Borrachas e Fibras. São Paulo: Editora Edgard Blucher, 2000. 6. Marcelo Rabello. Aditivação de Polímeros. São Paulo: Editora Artliber, 2004. 7. Jan C.J. Bart. Additives in Polymers. New York: John Wiley &amp; Sons, 2005. 8. Marino Xanthos. Functional Fillers for Plastics. Wiley-VCH Verlag GmbH, 2005. 9. Silvio Manrich. Processamento de Termoplásticos. Editora Artliber, 2005. 10. G.H. Michler, F.J. Baltá-Calleja. Mechanical Properties of Polymers Based on Nanostructure and Morphology. Boca Raton: CRC Press, 2005. 11. A. M. Piva, H. Wiebeck. Reciclagem do P. São Paulo: Editora Artliber". Manas Chanda, ,Salil K. Roy  Plastics Fabrication and Recycling</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3065.xlsx
+++ b/docs/assets/disciplinas/LOM3065.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar uma visão técnico-científica e mercadológica da indústria de polímeros termoplásticos, popularmente conhecidos como plásticos e dos elastômeros.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Principais tipos de polímeros termoplásticos ("commodities" e de engenharia) e elastômeros. Mercados, tecnologias de trasnformação e reciclagem.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Definição e classificação de polímeros termoplásticos, elastômeros e fibras.2. Identificação de plásticos, borrachas e fibras.3. Polímeros de adição olefínicos: polietileno, polipropileno e seus copolímeros.4. Polímeros de condensação: poli(tereftalato de etileno), poli(tereftalato de butileno) e poliamidas.5. Polímeros halogenados: poli(cloreto de vinila), poli(tetrafluor etileno) e poli(fluoreto de vinilideno).6. Termoplásticos acrílicos e oximetilênicos: PMMA, POM e poliacetais.7. Termoplásticos nitrogenados: poliacrilonitrila, poliuretano, ABS e SAN.8. Termoplásticos estirênicos e fenólicos: poliestireno, HIPS, SBR e policarbonato.9. Polímeros hidrolisáveis: EVA, PVAc e PEO.10. Termoplásticos avançados: PPO, PPS e PEEK.11. Elastômeros: borracha natural, polibutadieno, borrachas nitrílicas e fluoradas, EPDM e polisiloxanos.12. Aditivos e compostos.13. Tecnologias de transformação apropriadas a cada tipo de plástico: extrusão, injeção, laminação, calandragem, termoformação e moldagem por sopro.14. Testes e ensaios de polímeros termoplásticos e elastômeros.15. Reciclagem.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1033242 - Fábio Herbst Florenzano</t>
+    <t>A avaliação será feita por meio de Provas Escritas, Estudos de Casos e Desenvolvimento de Projetos, sendo necessário utilizar pelo menos dois critérios de avaliação diferentes.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de Provas Escritas, Estudos de Casos e Desenvolvimento de Projetos, sendo necessário utilizar pelo menos dois critérios de avaliação diferentes.</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P+EC+Projetos)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P+EC+Projetos)/3</t>
+    <t>Não consta recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não consta recuperação</t>
+    <t>1. J. Margolis. Engineering Plastics Handbook. McGraw-Hill Professional, 2005. 2. Nigel Mills. Plastics - Microstructure and Engineering Applications. Butterworth-Heineman, 2005. 3. Walter Michaeli, TEcnologia dos Plasticos. Ed. Blucher 4. Hélio Wiebeck, Júlio Harada. Plásticos de Engenharia - Tecnologia e Aplicações. São Paulo: Editora Artliber, 2005. 5. E. B. Mano, L. C. Mendes. Identificação de Plásticos, Borrachas e Fibras. São Paulo: Editora Edgard Blucher, 2000. 6. Marcelo Rabello. Aditivação de Polímeros. São Paulo: Editora Artliber, 2004. 7. Jan C.J. Bart. Additives in Polymers. New York: John Wiley &amp; Sons, 2005. 8. Marino Xanthos. Functional Fillers for Plastics. Wiley-VCH Verlag GmbH, 2005. 9. Silvio Manrich. Processamento de Termoplásticos. Editora Artliber, 2005. 10. G.H. Michler, F.J. Baltá-Calleja. Mechanical Properties of Polymers Based on Nanostructure and Morphology. Boca Raton: CRC Press, 2005. 11. A. M. Piva, H. Wiebeck. Reciclagem do P. São Paulo: Editora Artliber". Manas Chanda, ,Salil K. Roy  Plastics Fabrication and Recycling</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
